--- a/analysis/KEGG_raw_data/PNA79_30m_vs_H2O_30m_KEGG_FNV_30.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_30m_vs_H2O_30m_KEGG_FNV_30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="301">
   <si>
     <t>NGenes</t>
   </si>
@@ -50,36 +50,42 @@
     <t>fnc02024</t>
   </si>
   <si>
+    <t>fnc00760</t>
+  </si>
+  <si>
     <t>fnc00541</t>
   </si>
   <si>
     <t>fnc01210</t>
   </si>
   <si>
-    <t>fnc00760</t>
-  </si>
-  <si>
     <t>fnc00290</t>
   </si>
   <si>
     <t>fnc00543</t>
   </si>
   <si>
+    <t>fnc04981</t>
+  </si>
+  <si>
     <t>fnc00260</t>
   </si>
   <si>
+    <t>fnc00520</t>
+  </si>
+  <si>
     <t>fnc00400</t>
   </si>
   <si>
-    <t>fnc00520</t>
-  </si>
-  <si>
     <t>fnc00680</t>
   </si>
   <si>
     <t>fnc00770</t>
   </si>
   <si>
+    <t>fnc01110</t>
+  </si>
+  <si>
     <t>fnc00130</t>
   </si>
   <si>
@@ -89,72 +95,69 @@
     <t>fnc01250</t>
   </si>
   <si>
-    <t>fnc01110</t>
-  </si>
-  <si>
     <t>fnc00061</t>
   </si>
   <si>
     <t>fnc00521</t>
   </si>
   <si>
+    <t>fnc00550</t>
+  </si>
+  <si>
+    <t>fnc01120</t>
+  </si>
+  <si>
+    <t>fnc01212</t>
+  </si>
+  <si>
+    <t>fnc00500</t>
+  </si>
+  <si>
+    <t>fnc00630</t>
+  </si>
+  <si>
     <t>fnc01501</t>
   </si>
   <si>
+    <t>fnc00564</t>
+  </si>
+  <si>
+    <t>fnc00190</t>
+  </si>
+  <si>
+    <t>fnc00470</t>
+  </si>
+  <si>
+    <t>fnc01240</t>
+  </si>
+  <si>
+    <t>fnc00300</t>
+  </si>
+  <si>
+    <t>fnc00552</t>
+  </si>
+  <si>
+    <t>fnc00360</t>
+  </si>
+  <si>
+    <t>fnc00330</t>
+  </si>
+  <si>
+    <t>fnc00270</t>
+  </si>
+  <si>
+    <t>fnc00340</t>
+  </si>
+  <si>
     <t>fnc00920</t>
   </si>
   <si>
-    <t>fnc00270</t>
-  </si>
-  <si>
-    <t>fnc00550</t>
-  </si>
-  <si>
-    <t>fnc01120</t>
-  </si>
-  <si>
-    <t>fnc01212</t>
-  </si>
-  <si>
-    <t>fnc00500</t>
-  </si>
-  <si>
-    <t>fnc00630</t>
-  </si>
-  <si>
-    <t>fnc00564</t>
-  </si>
-  <si>
-    <t>fnc00190</t>
-  </si>
-  <si>
-    <t>fnc00470</t>
-  </si>
-  <si>
-    <t>fnc01240</t>
-  </si>
-  <si>
-    <t>fnc00300</t>
-  </si>
-  <si>
-    <t>fnc00552</t>
-  </si>
-  <si>
-    <t>fnc00330</t>
-  </si>
-  <si>
-    <t>fnc00340</t>
-  </si>
-  <si>
     <t>fnc00450</t>
   </si>
   <si>
     <t>fnc00220</t>
   </si>
   <si>
-    <t>fnc00401</t>
-  </si>
-  <si>
     <t>fnc00523</t>
   </si>
   <si>
@@ -164,141 +167,147 @@
     <t>fnc03420</t>
   </si>
   <si>
+    <t>fnc00040</t>
+  </si>
+  <si>
+    <t>fnc00970</t>
+  </si>
+  <si>
+    <t>fnc01200</t>
+  </si>
+  <si>
+    <t>fnc02010</t>
+  </si>
+  <si>
+    <t>fnc00640</t>
+  </si>
+  <si>
+    <t>fnc00010</t>
+  </si>
+  <si>
+    <t>fnc00250</t>
+  </si>
+  <si>
+    <t>fnc02020</t>
+  </si>
+  <si>
+    <t>fnc03010</t>
+  </si>
+  <si>
+    <t>fnc03410</t>
+  </si>
+  <si>
+    <t>fnc00730</t>
+  </si>
+  <si>
+    <t>fnc00362</t>
+  </si>
+  <si>
+    <t>fnc03018</t>
+  </si>
+  <si>
+    <t>fnc00071</t>
+  </si>
+  <si>
+    <t>fnc03430</t>
+  </si>
+  <si>
+    <t>fnc03440</t>
+  </si>
+  <si>
+    <t>fnc00720</t>
+  </si>
+  <si>
+    <t>fnc04980</t>
+  </si>
+  <si>
+    <t>fnc00780</t>
+  </si>
+  <si>
+    <t>fnc00410</t>
+  </si>
+  <si>
+    <t>fnc00860</t>
+  </si>
+  <si>
+    <t>fnc00430</t>
+  </si>
+  <si>
+    <t>fnc00650</t>
+  </si>
+  <si>
+    <t>fnc01502</t>
+  </si>
+  <si>
+    <t>fnc00460</t>
+  </si>
+  <si>
+    <t>fnc00625</t>
+  </si>
+  <si>
+    <t>rpoE</t>
+  </si>
+  <si>
+    <t>fnc00910</t>
+  </si>
+  <si>
     <t>fnc00350</t>
   </si>
   <si>
-    <t>fnc00040</t>
-  </si>
-  <si>
-    <t>fnc00970</t>
-  </si>
-  <si>
-    <t>fnc01200</t>
-  </si>
-  <si>
-    <t>fnc02010</t>
-  </si>
-  <si>
-    <t>fnc00640</t>
-  </si>
-  <si>
-    <t>fnc00010</t>
+    <t>fnc00480</t>
+  </si>
+  <si>
+    <t>fnc00380</t>
+  </si>
+  <si>
+    <t>fnc00740</t>
+  </si>
+  <si>
+    <t>fnc02060</t>
+  </si>
+  <si>
+    <t>fnc00540</t>
+  </si>
+  <si>
+    <t>fnc00710</t>
+  </si>
+  <si>
+    <t>fnc03020</t>
+  </si>
+  <si>
+    <t>fnc03060</t>
+  </si>
+  <si>
+    <t>fnc01503</t>
+  </si>
+  <si>
+    <t>fnc00561</t>
+  </si>
+  <si>
+    <t>fnc00030</t>
+  </si>
+  <si>
+    <t>fnc02040</t>
+  </si>
+  <si>
+    <t>fnc00310</t>
+  </si>
+  <si>
+    <t>fnc00280</t>
+  </si>
+  <si>
+    <t>fnc00900</t>
+  </si>
+  <si>
+    <t>fnc03030</t>
+  </si>
+  <si>
+    <t>fnc00790</t>
   </si>
   <si>
     <t>fnc00670</t>
   </si>
   <si>
-    <t>fnc00250</t>
-  </si>
-  <si>
-    <t>fnc03010</t>
-  </si>
-  <si>
-    <t>fnc03410</t>
-  </si>
-  <si>
-    <t>fnc00730</t>
-  </si>
-  <si>
-    <t>fnc00362</t>
-  </si>
-  <si>
-    <t>fnc03018</t>
-  </si>
-  <si>
-    <t>fnc00071</t>
-  </si>
-  <si>
-    <t>fnc03430</t>
-  </si>
-  <si>
-    <t>fnc03440</t>
-  </si>
-  <si>
-    <t>fnc00780</t>
-  </si>
-  <si>
-    <t>fnc00410</t>
-  </si>
-  <si>
-    <t>fnc01503</t>
-  </si>
-  <si>
-    <t>fnc00860</t>
-  </si>
-  <si>
-    <t>fnc00430</t>
-  </si>
-  <si>
-    <t>fnc00650</t>
-  </si>
-  <si>
-    <t>fnc01502</t>
-  </si>
-  <si>
-    <t>fnc00460</t>
-  </si>
-  <si>
-    <t>fnc00625</t>
-  </si>
-  <si>
-    <t>rpoE</t>
-  </si>
-  <si>
-    <t>fnc00910</t>
-  </si>
-  <si>
-    <t>fnc00480</t>
-  </si>
-  <si>
-    <t>fnc00380</t>
-  </si>
-  <si>
-    <t>fnc00740</t>
-  </si>
-  <si>
-    <t>fnc02060</t>
-  </si>
-  <si>
-    <t>fnc02020</t>
-  </si>
-  <si>
-    <t>fnc00540</t>
-  </si>
-  <si>
-    <t>fnc03020</t>
-  </si>
-  <si>
-    <t>fnc03060</t>
-  </si>
-  <si>
-    <t>fnc00561</t>
-  </si>
-  <si>
-    <t>fnc00030</t>
-  </si>
-  <si>
-    <t>fnc00360</t>
-  </si>
-  <si>
-    <t>fnc02040</t>
-  </si>
-  <si>
-    <t>fnc00310</t>
-  </si>
-  <si>
-    <t>fnc00280</t>
-  </si>
-  <si>
-    <t>fnc00900</t>
-  </si>
-  <si>
-    <t>fnc03030</t>
-  </si>
-  <si>
-    <t>fnc00790</t>
-  </si>
-  <si>
     <t>fnc00230</t>
   </si>
   <si>
@@ -317,6 +326,9 @@
     <t>fnc00020</t>
   </si>
   <si>
+    <t>fnc00074</t>
+  </si>
+  <si>
     <t>fnc04122</t>
   </si>
   <si>
@@ -338,36 +350,42 @@
     <t>Quorum sensing</t>
   </si>
   <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
     <t>O-Antigen nucleotide sugar biosynthesis</t>
   </si>
   <si>
     <t>2-Oxocarboxylic acid metabolism</t>
   </si>
   <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
     <t>Valine, leucine and isoleucine biosynthesis</t>
   </si>
   <si>
     <t>Exopolysaccharide biosynthesis</t>
   </si>
   <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
     <t>Glycine, serine and threonine metabolism</t>
   </si>
   <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
     <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
   </si>
   <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
     <t>Methane metabolism</t>
   </si>
   <si>
     <t>Pantothenate and CoA biosynthesis</t>
   </si>
   <si>
+    <t>Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
     <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
   </si>
   <si>
@@ -377,72 +395,69 @@
     <t>Biosynthesis of nucleotide sugars</t>
   </si>
   <si>
-    <t>Biosynthesis of secondary metabolites</t>
-  </si>
-  <si>
     <t>Fatty acid biosynthesis</t>
   </si>
   <si>
     <t>Streptomycin biosynthesis</t>
   </si>
   <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Microbial metabolism in diverse environments</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
     <t>beta-Lactam resistance</t>
   </si>
   <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>D-Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>Teichoic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
     <t>Sulfur metabolism</t>
   </si>
   <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>Microbial metabolism in diverse environments</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>D-Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of cofactors</t>
-  </si>
-  <si>
-    <t>Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>Teichoic acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
     <t>Selenocompound metabolism</t>
   </si>
   <si>
     <t>Arginine biosynthesis</t>
   </si>
   <si>
-    <t>Novobiocin biosynthesis</t>
-  </si>
-  <si>
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
@@ -452,138 +467,144 @@
     <t>Nucleotide excision repair</t>
   </si>
   <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>Ribosome</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
     <t>Tyrosine metabolism</t>
   </si>
   <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Aminoacyl-tRNA biosynthesis</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>ABC transporters</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>Phosphotransferase system (PTS)</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
+    <t>RNA polymerase</t>
+  </si>
+  <si>
+    <t>Protein export</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Flagellar assembly</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
   </si>
   <si>
     <t>One carbon pool by folate</t>
   </si>
   <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Ribosome</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Mismatch repair</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
-  </si>
-  <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Taurine and hypotaurine metabolism</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism</t>
-  </si>
-  <si>
-    <t>Phosphotransferase system (PTS)</t>
-  </si>
-  <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>RNA polymerase</t>
-  </si>
-  <si>
-    <t>Protein export</t>
-  </si>
-  <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>Flagellar assembly</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>DNA replication</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
     <t>Purine metabolism</t>
   </si>
   <si>
@@ -602,51 +623,60 @@
     <t>Citrate cycle (TCA cycle)</t>
   </si>
   <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
     <t>Sulfur relay system</t>
   </si>
   <si>
     <t>HMPREF0946_RS10130;HMPREF0946_RS03035</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04180;HMPREF0946_RS04500;HMPREF0946_RS04650;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS05305;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS07010;HMPREF0946_RS07775;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09260;HMPREF0946_RS10960;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02270;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS03370;HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS03565;HMPREF0946_RS03580;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03650;HMPREF0946_RS03720;HMPREF0946_RS03775;HMPREF0946_RS03800;HMPREF0946_RS03850;HMPREF0946_RS03975;HMPREF0946_RS04070;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04460;HMPREF0946_RS04465;HMPREF0946_RS04500;HMPREF0946_RS04505;HMPREF0946_RS04525;HMPREF0946_RS04575;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04720;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05025;HMPREF0946_RS05060;HMPREF0946_RS05115;HMPREF0946_RS05175;HMPREF0946_RS05180;HMPREF0946_RS05260;HMPREF0946_RS05280;HMPREF0946_RS05305;HMPREF0946_RS05325;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05630;HMPREF0946_RS05705;HMPREF0946_RS05720;HMPREF0946_RS05725;HMPREF0946_RS05730;HMPREF0946_RS05745;HMPREF0946_RS05880;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06175;HMPREF0946_RS06285;HMPREF0946_RS06335;HMPREF0946_RS06350;HMPREF0946_RS06380;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06435;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06595;HMPREF0946_RS06640;HMPREF0946_RS06670;HMPREF0946_RS06765;HMPREF0946_RS06775;HMPREF0946_RS06835;HMPREF0946_RS06930;HMPREF0946_RS07005;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07160;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07220;HMPREF0946_RS07255;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07720;HMPREF0946_RS07750;HMPREF0946_RS07770;HMPREF0946_RS07775;HMPREF0946_RS07805;HMPREF0946_RS07810;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08570;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09060;HMPREF0946_RS09120;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS09260;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09465;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS09880;HMPREF0946_RS09990;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10040;HMPREF0946_RS10050;HMPREF0946_RS10105;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10125;HMPREF0946_RS10130;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS02840;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02810;HMPREF0946_RS02670;HMPREF0946_RS02555;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02350;HMPREF0946_RS02270;HMPREF0946_RS02210;HMPREF0946_RS01975;HMPREF0946_RS01940;HMPREF0946_RS01915;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820;HMPREF0946_RS01630;HMPREF0946_RS01610;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01410;HMPREF0946_RS01360;HMPREF0946_RS01035;HMPREF0946_RS01005;HMPREF0946_RS01000;HMPREF0946_RS00990;HMPREF0946_RS00925;HMPREF0946_RS00340;HMPREF0946_RS00335;HMPREF0946_RS00310;HMPREF0946_RS00230;HMPREF0946_RS00220;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10865;HMPREF0946_RS10860;HMPREF0946_RS10640;HMPREF0946_RS10610;HMPREF0946_RS10540;HMPREF0946_RS03320;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS02985;HMPREF0946_RS00650;HMPREF0946_RS00640;HMPREF0946_RS00550;HMPREF0946_RS00485;HMPREF0946_RS05545</t>
+    <t>HMPREF0946_RS04180;HMPREF0946_RS04500;HMPREF0946_RS04650;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS05305;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS07010;HMPREF0946_RS07775;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09260;HMPREF0946_RS10960;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02270;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS03370;HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS03565;HMPREF0946_RS03580;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03650;HMPREF0946_RS03720;HMPREF0946_RS03775;HMPREF0946_RS03800;HMPREF0946_RS03850;HMPREF0946_RS03975;HMPREF0946_RS04070;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04460;HMPREF0946_RS04465;HMPREF0946_RS04500;HMPREF0946_RS04505;HMPREF0946_RS04525;HMPREF0946_RS04575;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04720;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05025;HMPREF0946_RS05060;HMPREF0946_RS05115;HMPREF0946_RS05175;HMPREF0946_RS05180;HMPREF0946_RS05260;HMPREF0946_RS05280;HMPREF0946_RS05305;HMPREF0946_RS05325;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05630;HMPREF0946_RS05705;HMPREF0946_RS05720;HMPREF0946_RS05725;HMPREF0946_RS05730;HMPREF0946_RS05745;HMPREF0946_RS05880;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06175;HMPREF0946_RS06285;HMPREF0946_RS06335;HMPREF0946_RS06350;HMPREF0946_RS06380;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06435;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06595;HMPREF0946_RS06640;HMPREF0946_RS06670;HMPREF0946_RS06765;HMPREF0946_RS06775;HMPREF0946_RS06835;HMPREF0946_RS06930;HMPREF0946_RS07005;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07160;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07220;HMPREF0946_RS07255;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07720;HMPREF0946_RS07750;HMPREF0946_RS07770;HMPREF0946_RS07775;HMPREF0946_RS07805;HMPREF0946_RS07810;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08570;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09060;HMPREF0946_RS09120;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS09260;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09465;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS09880;HMPREF0946_RS09990;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10040;HMPREF0946_RS10050;HMPREF0946_RS10105;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10125;HMPREF0946_RS10130;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS02840;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02810;HMPREF0946_RS02670;HMPREF0946_RS02555;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02350;HMPREF0946_RS02270;HMPREF0946_RS02210;HMPREF0946_RS01975;HMPREF0946_RS01940;HMPREF0946_RS01915;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820;HMPREF0946_RS01630;HMPREF0946_RS01610;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01410;HMPREF0946_RS01360;HMPREF0946_RS01035;HMPREF0946_RS01000;HMPREF0946_RS00990;HMPREF0946_RS00925;HMPREF0946_RS00340;HMPREF0946_RS00335;HMPREF0946_RS00310;HMPREF0946_RS00230;HMPREF0946_RS00220;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10865;HMPREF0946_RS10860;HMPREF0946_RS10640;HMPREF0946_RS10610;HMPREF0946_RS10540;HMPREF0946_RS03320;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS02985;HMPREF0946_RS00650;HMPREF0946_RS00640;HMPREF0946_RS00550;HMPREF0946_RS00485;HMPREF0946_RS05545</t>
   </si>
   <si>
     <t>HMPREF0946_RS05025;HMPREF0946_RS05375;HMPREF0946_RS05650;HMPREF0946_RS06175;HMPREF0946_RS07210;HMPREF0946_RS07570;HMPREF0946_RS07575;HMPREF0946_RS07580;HMPREF0946_RS07585;HMPREF0946_RS07590;HMPREF0946_RS08165;HMPREF0946_RS08180;HMPREF0946_RS08210;HMPREF0946_RS08215;HMPREF0946_RS08220;HMPREF0946_RS08225;HMPREF0946_RS08410;HMPREF0946_RS08415;HMPREF0946_RS08420;HMPREF0946_RS08425;HMPREF0946_RS08430;HMPREF0946_RS08605;HMPREF0946_RS08610;HMPREF0946_RS08615;HMPREF0946_RS08620;HMPREF0946_RS08625;HMPREF0946_RS09395;HMPREF0946_RS09400;HMPREF0946_RS09405;HMPREF0946_RS09410;HMPREF0946_RS09415;HMPREF0946_RS09670;HMPREF0946_RS09675;HMPREF0946_RS09680;HMPREF0946_RS09685;HMPREF0946_RS09690;HMPREF0946_RS02455;HMPREF0946_RS02450;HMPREF0946_RS02445;HMPREF0946_RS02440;HMPREF0946_RS10895;HMPREF0946_RS03065;HMPREF0946_RS03060;HMPREF0946_RS03055</t>
   </si>
   <si>
+    <t>HMPREF0946_RS06435;HMPREF0946_RS06640;HMPREF0946_RS07805;HMPREF0946_RS08570;HMPREF0946_RS10865;HMPREF0946_RS10860</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS09755;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835</t>
   </si>
   <si>
     <t>HMPREF0946_RS06335;HMPREF0946_RS10105</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06435;HMPREF0946_RS06640;HMPREF0946_RS07805;HMPREF0946_RS08570;HMPREF0946_RS01005;HMPREF0946_RS10865;HMPREF0946_RS10860</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS10105;HMPREF0946_RS02840</t>
   </si>
   <si>
     <t>HMPREF0946_RS09795</t>
   </si>
   <si>
+    <t>HMPREF0946_RS05175;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04820;HMPREF0946_RS05305;HMPREF0946_RS06120;HMPREF0946_RS10960;HMPREF0946_RS10120;HMPREF0946_RS02840</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04850;HMPREF0946_RS06335;HMPREF0946_RS07870;HMPREF0946_RS09260</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS04995;HMPREF0946_RS05280;HMPREF0946_RS06285;HMPREF0946_RS06390;HMPREF0946_RS07720;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09520;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10540</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04850;HMPREF0946_RS06335;HMPREF0946_RS09260</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04740;HMPREF0946_RS06425;HMPREF0946_RS08275;HMPREF0946_RS10960;HMPREF0946_RS10120</t>
   </si>
   <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS04575;HMPREF0946_RS10105;HMPREF0946_RS00990</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03775;HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04500;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05235;HMPREF0946_RS05305;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06670;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07185;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07775;HMPREF0946_RS07810;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09120;HMPREF0946_RS09260;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02395;HMPREF0946_RS02270;HMPREF0946_RS01185;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00650;HMPREF0946_RS00550</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS09495;HMPREF0946_RS09500</t>
   </si>
   <si>
@@ -656,24 +686,12 @@
     <t>HMPREF0946_RS03850;HMPREF0946_RS04995;HMPREF0946_RS05180;HMPREF0946_RS06390;HMPREF0946_RS07720;HMPREF0946_RS09755;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS02555;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10540</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03775;HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04500;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05235;HMPREF0946_RS05305;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06670;HMPREF0946_RS07140;HMPREF0946_RS07185;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07775;HMPREF0946_RS07810;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09120;HMPREF0946_RS09260;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02395;HMPREF0946_RS02270;HMPREF0946_RS01185;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00650;HMPREF0946_RS00550</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS05025;HMPREF0946_RS06175;HMPREF0946_RS02350;HMPREF0946_RS02210;HMPREF0946_RS01915;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
   </si>
   <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS06390;HMPREF0946_RS09755</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06980;HMPREF0946_RS01185</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS05705;HMPREF0946_RS05910;HMPREF0946_RS01410</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS04500;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06415;HMPREF0946_RS06575;HMPREF0946_RS07775;HMPREF0946_RS07870;HMPREF0946_RS10120;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02270</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06775;HMPREF0946_RS07270;HMPREF0946_RS09060;HMPREF0946_RS09860;HMPREF0946_RS10640</t>
   </si>
   <si>
@@ -689,6 +707,9 @@
     <t>HMPREF0946_RS03590;HMPREF0946_RS07010;HMPREF0946_RS10960;HMPREF0946_RS10115;HMPREF0946_RS01900;HMPREF0946_RS01890</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03505;HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06980;HMPREF0946_RS06985;HMPREF0946_RS06990;HMPREF0946_RS01185</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS05235;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07265;HMPREF0946_RS07810;HMPREF0946_RS02395;HMPREF0946_RS01750;HMPREF0946_RS01000;HMPREF0946_RS00310;HMPREF0946_RS00875</t>
   </si>
   <si>
@@ -707,21 +728,27 @@
     <t>HMPREF0946_RS06830;HMPREF0946_RS09785;HMPREF0946_RS09860</t>
   </si>
   <si>
+    <t>HMPREF0946_RS05745;HMPREF0946_RS06335</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03615;HMPREF0946_RS06335</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04500;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06415;HMPREF0946_RS06575;HMPREF0946_RS07775;HMPREF0946_RS10120;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02270</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS04465;HMPREF0946_RS04720</t>
   </si>
   <si>
+    <t>HMPREF0946_RS05705;HMPREF0946_RS05910;HMPREF0946_RS06065;HMPREF0946_RS01410</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04500;HMPREF0946_RS06385;HMPREF0946_RS06575;HMPREF0946_RS10215;HMPREF0946_RS02270</t>
   </si>
   <si>
     <t>HMPREF0946_RS03565;HMPREF0946_RS06335;HMPREF0946_RS07010</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06335;HMPREF0946_RS07870</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS09755</t>
   </si>
   <si>
@@ -731,9 +758,6 @@
     <t>HMPREF0946_RS03715;HMPREF0946_RS03955;HMPREF0946_RS10825</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06335;HMPREF0946_RS07870;HMPREF0946_RS00570</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS04180;HMPREF0946_RS10125;HMPREF0946_RS02810</t>
   </si>
   <si>
@@ -752,12 +776,12 @@
     <t>HMPREF0946_RS03405;HMPREF0946_RS03850;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS05280;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS08275;HMPREF0946_RS09880;HMPREF0946_RS10540;HMPREF0946_RS03035</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04460;HMPREF0946_RS05175;HMPREF0946_RS05595;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270;HMPREF0946_RS00220</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03565;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS05605;HMPREF0946_RS06335;HMPREF0946_RS07010;HMPREF0946_RS07705;HMPREF0946_RS01590;HMPREF0946_RS10865;HMPREF0946_RS03270</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03590;HMPREF0946_RS05375;HMPREF0946_RS06915;HMPREF0946_RS06920;HMPREF0946_RS06980;HMPREF0946_RS07010;HMPREF0946_RS08295;HMPREF0946_RS02590;HMPREF0946_RS02585;HMPREF0946_RS02435;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01875;HMPREF0946_RS00110;HMPREF0946_RS00105;HMPREF0946_RS00100</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03545;HMPREF0946_RS08650;HMPREF0946_RS09710;HMPREF0946_RS01325;HMPREF0946_RS10490;HMPREF0946_RS10485</t>
   </si>
   <si>
@@ -782,15 +806,18 @@
     <t>HMPREF0946_RS05290;HMPREF0946_RS05465;HMPREF0946_RS06230;HMPREF0946_RS07165;HMPREF0946_RS08515;HMPREF0946_RS01485;HMPREF0946_RS01230;HMPREF0946_RS00015</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03590;HMPREF0946_RS04095;HMPREF0946_RS04460;HMPREF0946_RS04735;HMPREF0946_RS06425;HMPREF0946_RS09265;HMPREF0946_RS00220;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS07160;HMPREF0946_RS02270</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS01035</t>
   </si>
   <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS04685</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03345;HMPREF0946_RS06980;HMPREF0946_RS07310</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03775;HMPREF0946_RS05260;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS06930;HMPREF0946_RS07160;HMPREF0946_RS00340;HMPREF0946_RS10610;HMPREF0946_RS03170;HMPREF0946_RS00640;HMPREF0946_RS05545</t>
   </si>
   <si>
@@ -815,6 +842,9 @@
     <t>HMPREF0946_RS03565;HMPREF0946_RS04070;HMPREF0946_RS07010</t>
   </si>
   <si>
+    <t>HMPREF0946_RS06335;HMPREF0946_RS00570</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03370;HMPREF0946_RS07005;HMPREF0946_RS01610;HMPREF0946_RS00485</t>
   </si>
   <si>
@@ -827,27 +857,27 @@
     <t>HMPREF0946_RS05280;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09280;HMPREF0946_RS09520;HMPREF0946_RS01020;HMPREF0946_RS00685;HMPREF0946_RS00620</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03590;HMPREF0946_RS05375;HMPREF0946_RS06915;HMPREF0946_RS06920;HMPREF0946_RS06980;HMPREF0946_RS07010;HMPREF0946_RS08295;HMPREF0946_RS02435;HMPREF0946_RS02430;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01875;HMPREF0946_RS00110;HMPREF0946_RS00105;HMPREF0946_RS00100</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03800;HMPREF0946_RS03975;HMPREF0946_RS05180;HMPREF0946_RS05630;HMPREF0946_RS05730;HMPREF0946_RS06835;HMPREF0946_RS02555</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04180;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS06495;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS03035</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS07065</t>
   </si>
   <si>
     <t>HMPREF0946_RS09470;HMPREF0946_RS09475;HMPREF0946_RS10895</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03345;HMPREF0946_RS03505;HMPREF0946_RS06980;HMPREF0946_RS06985;HMPREF0946_RS06990;HMPREF0946_RS07310</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS01975</t>
   </si>
   <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04740;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10540;HMPREF0946_RS00550</t>
   </si>
   <si>
-    <t>HMPREF0946_RS05745;HMPREF0946_RS06335;HMPREF0946_RS07870</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS07225</t>
   </si>
   <si>
@@ -864,6 +894,9 @@
   </si>
   <si>
     <t>HMPREF0946_RS05720;HMPREF0946_RS07220;HMPREF0946_RS09355;HMPREF0946_RS09975;HMPREF0946_RS09985;HMPREF0946_RS02670</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS04460;HMPREF0946_RS05175;HMPREF0946_RS05595;HMPREF0946_RS07775;HMPREF0946_RS09265;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270;HMPREF0946_RS00220</t>
   </si>
   <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS04505;HMPREF0946_RS05060;HMPREF0946_RS05325;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS07140;HMPREF0946_RS07705;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS01590;HMPREF0946_RS01565;HMPREF0946_RS00230;HMPREF0946_RS00550</t>
@@ -967,13 +1000,13 @@
         <v>2.0</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>2.663633013485619E-4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.024505423724067697</v>
+        <v>0.02530451362811338</v>
       </c>
       <c r="F2" t="n">
         <v>0.5147232025964021</v>
@@ -982,10 +1015,10 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -993,28 +1026,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0022259910771864773</v>
+        <v>0.0026271414561973433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10239558955057795</v>
+        <v>0.1247892191693738</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0038692741951834126</v>
+        <v>0.0029516161183650645</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0909279435868102</v>
+        <v>0.05785167591995527</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -1022,28 +1055,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>210.0</v>
+        <v>208.0</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.016336297249590223</v>
+        <v>0.014280024561780347</v>
       </c>
       <c r="E4" t="n">
-        <v>0.40965792030652187</v>
+        <v>0.3525136089594165</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05687342199376095</v>
+        <v>0.05704363129982646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5199533227173292</v>
+        <v>0.48333199678759536</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -1054,25 +1087,25 @@
         <v>44.0</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
         <v>0.02055034643268536</v>
       </c>
       <c r="E5" t="n">
-        <v>0.40965792030652187</v>
+        <v>0.3525136089594165</v>
       </c>
       <c r="F5" t="n">
         <v>0.00248959484476824</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07800730513607151</v>
+        <v>0.05785167591995527</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -1080,28 +1113,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.022264017407963146</v>
+        <v>0.021693285943972726</v>
       </c>
       <c r="E6" t="n">
-        <v>0.40965792030652187</v>
+        <v>0.3525136089594165</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4986557231326534</v>
+        <v>0.3525167130237313</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
@@ -1109,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02942745133917099</v>
+        <v>0.022264017407963146</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4444663390706694</v>
+        <v>0.3525136089594165</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6033906976454652</v>
+        <v>0.4986557231326534</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -1138,28 +1171,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04308325666601209</v>
+        <v>0.02942745133917099</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4444663390706694</v>
+        <v>0.39937255388874915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2549333027591215</v>
+        <v>0.6033906976454652</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9216819407445163</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -1170,13 +1203,13 @@
         <v>2.0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
         <v>0.04440710394996559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4444663390706694</v>
+        <v>0.4172361878627826</v>
       </c>
       <c r="F9" t="n">
         <v>0.677185191345618</v>
@@ -1185,10 +1218,10 @@
         <v>1.0</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -1199,25 +1232,25 @@
         <v>1.0</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10" t="n">
         <v>0.04672991398118472</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4444663390706694</v>
+        <v>0.4172361878627826</v>
       </c>
       <c r="F10" t="n">
         <v>0.04672991398118472</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5199533227173292</v>
+        <v>0.48333199678759536</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1225,28 +1258,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04831155859463798</v>
+        <v>0.04757058572469014</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4444663390706694</v>
+        <v>0.4172361878627826</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4302859411060301</v>
+        <v>0.9447507817704413</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1254,28 +1287,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05909918642439833</v>
+        <v>0.04831155859463798</v>
       </c>
       <c r="E12" t="n">
-        <v>0.460915434738693</v>
+        <v>0.4172361878627826</v>
       </c>
       <c r="F12" t="n">
-        <v>0.45682930178162884</v>
+        <v>0.4302859411060301</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1286,25 +1319,25 @@
         <v>14.0</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
         <v>0.06011940453113387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.460915434738693</v>
+        <v>0.45751747788225944</v>
       </c>
       <c r="F13" t="n">
         <v>0.1002552118547323</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6282659942896557</v>
+        <v>0.6140631726102354</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
@@ -1312,28 +1345,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07585952411656892</v>
+        <v>0.06260765486809866</v>
       </c>
       <c r="E14" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.45751747788225944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5119029132612056</v>
+        <v>0.5610058580929191</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
@@ -1341,28 +1374,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07828673631239155</v>
+        <v>0.07585952411656892</v>
       </c>
       <c r="E15" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.48367561678198356</v>
       </c>
       <c r="F15" t="n">
-        <v>0.43810371158034356</v>
+        <v>0.5119029132612056</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
@@ -1370,28 +1403,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09300586739304703</v>
+        <v>0.07828673631239155</v>
       </c>
       <c r="E16" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.48367561678198356</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.43810371158034356</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -1399,28 +1432,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0</v>
+        <v>69.0</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09511867017307864</v>
+        <v>0.08146115651064986</v>
       </c>
       <c r="E17" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.48367561678198356</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5818555864662712</v>
+        <v>0.05089163616476586</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.48333199678759536</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
@@ -1428,28 +1461,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09681095807560974</v>
+        <v>0.09300586739304703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.4840547903780487</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06411546896161979</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5199533227173292</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
@@ -1457,28 +1490,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>69.0</v>
+        <v>11.0</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.10728988261581214</v>
+        <v>0.09511867017307864</v>
       </c>
       <c r="E19" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.4840547903780487</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06764123819268046</v>
+        <v>0.5818555864662712</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5199533227173292</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
@@ -1486,28 +1519,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11148773227929071</v>
+        <v>0.09681095807560974</v>
       </c>
       <c r="E20" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.4840547903780487</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5273283968568399</v>
+        <v>0.06411546896161979</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>0.48333199678759536</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
@@ -1515,28 +1548,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12226577100948854</v>
+        <v>0.11148773227929071</v>
       </c>
       <c r="E21" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9865912755189992</v>
+        <v>0.5273283968568399</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
@@ -1544,28 +1577,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12230346996359928</v>
+        <v>0.12226577100948854</v>
       </c>
       <c r="E22" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6899744594489311</v>
+        <v>0.9865912755189992</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
@@ -1573,28 +1606,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1259210978095874</v>
+        <v>0.13575344104947248</v>
       </c>
       <c r="E23" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.3366235418331953</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -1602,28 +1635,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>13.0</v>
+        <v>52.0</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1265532911736152</v>
+        <v>0.13641518838561917</v>
       </c>
       <c r="E24" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F24" t="n">
-        <v>0.36184127707555286</v>
+        <v>0.054050014045108785</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>0.48333199678759536</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -1631,28 +1664,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13575344104947248</v>
+        <v>0.1386543361390895</v>
       </c>
       <c r="E25" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3366235418331953</v>
+        <v>0.47356617955514235</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9982730694494535</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1660,28 +1693,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>52.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D26" t="n">
-        <v>0.13641518838561917</v>
+        <v>0.13974084382556531</v>
       </c>
       <c r="E26" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F26" t="n">
-        <v>0.054050014045108785</v>
+        <v>0.3517916030118302</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5199533227173292</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -1689,28 +1722,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1386543361390895</v>
+        <v>0.14106767506901588</v>
       </c>
       <c r="E27" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.5154395819829426</v>
       </c>
       <c r="F27" t="n">
-        <v>0.47356617955514235</v>
+        <v>0.31427655724421677</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -1718,28 +1751,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D28" t="n">
-        <v>0.13974084382556531</v>
+        <v>0.17438999984698664</v>
       </c>
       <c r="E28" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.6135944439060641</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3517916030118302</v>
+        <v>0.42313868283816836</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
@@ -1747,28 +1780,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D29" t="n">
-        <v>0.14106767506901588</v>
+        <v>0.19153163517534036</v>
       </c>
       <c r="E29" t="n">
-        <v>0.46350807522676646</v>
+        <v>0.6339152673663595</v>
       </c>
       <c r="F29" t="n">
-        <v>0.31427655724421677</v>
+        <v>0.6464830421606915</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9847332126985459</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
@@ -1776,28 +1809,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D30" t="n">
-        <v>0.19153163517534036</v>
+        <v>0.19351097635394132</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5934336608187534</v>
+        <v>0.6339152673663595</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6464830421606915</v>
+        <v>0.1374893913464252</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>0.7485533528860928</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1805,28 +1838,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19351097635394132</v>
+        <v>0.22971017052867082</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5934336608187534</v>
+        <v>0.6917465030888315</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1374893913464252</v>
+        <v>0.2927811688648346</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7602354580331747</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
@@ -1834,28 +1867,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>7.0</v>
+        <v>48.0</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22971017052867082</v>
+        <v>0.230981858370243</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6506242976253939</v>
+        <v>0.6917465030888315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2927811688648346</v>
+        <v>0.07190843824814128</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9831650800788052</v>
+        <v>0.5033590677369889</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -1863,28 +1896,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>48.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
-        <v>0.230981858370243</v>
+        <v>0.23826771730032703</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6506242976253939</v>
+        <v>0.6917465030888315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07190843824814128</v>
+        <v>0.23826771730032703</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5199533227173292</v>
+        <v>0.8980860113627711</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -1892,28 +1925,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.23826771730032703</v>
+        <v>0.24044810999199337</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6506242976253939</v>
+        <v>0.6917465030888315</v>
       </c>
       <c r="F34" t="n">
-        <v>0.23826771730032703</v>
+        <v>0.8856095337354162</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8958866170492296</v>
+        <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35">
@@ -1921,28 +1954,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24044810999199337</v>
+        <v>0.25262093107674854</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6506242976253939</v>
+        <v>0.6917465030888315</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8856095337354162</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36">
@@ -1953,13 +1986,13 @@
         <v>3.0</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D36" t="n">
         <v>0.25485397482220107</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6699018766754999</v>
+        <v>0.6917465030888315</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -1968,10 +2001,10 @@
         <v>1.0</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1979,28 +2012,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D37" t="n">
-        <v>0.27336788249899036</v>
+        <v>0.2706617124444132</v>
       </c>
       <c r="E37" t="n">
-        <v>0.698606810830753</v>
+        <v>0.7018905091190293</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0</v>
+        <v>0.5337990135700035</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -2008,28 +2041,28 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D38" t="n">
-        <v>0.30739276778404534</v>
+        <v>0.27336788249899036</v>
       </c>
       <c r="E38" t="n">
-        <v>0.753400717395574</v>
+        <v>0.7018905091190293</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9347090376806375</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>1.0</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
@@ -2037,28 +2070,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D39" t="n">
-        <v>0.31850607144339194</v>
+        <v>0.3011550715176355</v>
       </c>
       <c r="E39" t="n">
-        <v>0.753400717395574</v>
+        <v>0.7487772548585719</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6469417031736172</v>
+        <v>0.989291497643747</v>
       </c>
       <c r="G39" t="n">
         <v>1.0</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40">
@@ -2066,28 +2099,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3193763910698629</v>
+        <v>0.30739276778404534</v>
       </c>
       <c r="E40" t="n">
-        <v>0.753400717395574</v>
+        <v>0.7487772548585719</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0</v>
+        <v>0.9347090376806375</v>
       </c>
       <c r="G40" t="n">
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
@@ -2095,28 +2128,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D41" t="n">
-        <v>0.33983764066364375</v>
+        <v>0.31850607144339194</v>
       </c>
       <c r="E41" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7564519196780558</v>
       </c>
       <c r="F41" t="n">
-        <v>0.33983764066364375</v>
+        <v>0.6469417031736172</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9982730694494535</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42">
@@ -2124,28 +2157,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35122190331933156</v>
+        <v>0.33983764066364375</v>
       </c>
       <c r="E42" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F42" t="n">
-        <v>0.17540771961153157</v>
+        <v>0.33983764066364375</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8381302967146362</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
@@ -2153,28 +2186,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D43" t="n">
-        <v>0.35566363699163184</v>
+        <v>0.35122190331933156</v>
       </c>
       <c r="E43" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.17540771961153157</v>
       </c>
       <c r="G43" t="n">
-        <v>1.0</v>
+        <v>0.8321861102131141</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
@@ -2185,25 +2218,25 @@
         <v>3.0</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3591027333461222</v>
+        <v>0.35566363699163184</v>
       </c>
       <c r="E44" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9875495703515627</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45">
@@ -2214,13 +2247,13 @@
         <v>3.0</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D45" t="n">
         <v>0.3666028862339883</v>
       </c>
       <c r="E45" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -2229,10 +2262,10 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
@@ -2243,13 +2276,13 @@
         <v>12.0</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D46" t="n">
         <v>0.3783894408335854</v>
       </c>
       <c r="E46" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F46" t="n">
         <v>0.7016121157277444</v>
@@ -2258,10 +2291,10 @@
         <v>1.0</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
@@ -2272,25 +2305,25 @@
         <v>32.0</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D47" t="n">
         <v>0.3903623244832194</v>
       </c>
       <c r="E47" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F47" t="n">
         <v>0.06265903298716165</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5199533227173292</v>
+        <v>0.48333199678759536</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -2301,25 +2334,25 @@
         <v>58.0</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D48" t="n">
         <v>0.3929271416493648</v>
       </c>
       <c r="E48" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F48" t="n">
         <v>0.17505877773960132</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8381302967146362</v>
+        <v>0.8321861102131141</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
@@ -2330,13 +2363,13 @@
         <v>5.0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D49" t="n">
         <v>0.40440764612753377</v>
       </c>
       <c r="E49" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F49" t="n">
         <v>0.652199411311446</v>
@@ -2345,10 +2378,10 @@
         <v>1.0</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50">
@@ -2359,25 +2392,25 @@
         <v>12.0</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D50" t="n">
         <v>0.41075913725431945</v>
       </c>
       <c r="E50" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F50" t="n">
         <v>0.17832559504566728</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8381302967146362</v>
+        <v>0.8321861102131141</v>
       </c>
       <c r="H50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I50" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51">
@@ -2385,28 +2418,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4167064512790597</v>
+        <v>0.422431766381988</v>
       </c>
       <c r="E51" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4123948145357665</v>
+        <v>0.303316886407291</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I51" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52">
@@ -2414,28 +2447,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D52" t="n">
-        <v>0.422431766381988</v>
+        <v>0.426803284159883</v>
       </c>
       <c r="E52" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F52" t="n">
-        <v>0.303316886407291</v>
+        <v>0.015387852767504125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9831650800788052</v>
+        <v>0.25133492853590067</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53">
@@ -2446,13 +2479,13 @@
         <v>6.0</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D53" t="n">
         <v>0.42688234171537187</v>
       </c>
       <c r="E53" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F53" t="n">
         <v>0.8782285880630609</v>
@@ -2461,10 +2494,10 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I53" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54">
@@ -2475,13 +2508,13 @@
         <v>2.0</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D54" t="n">
         <v>0.43485191673747836</v>
       </c>
       <c r="E54" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F54" t="n">
         <v>1.0</v>
@@ -2490,10 +2523,10 @@
         <v>1.0</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I54" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55">
@@ -2504,13 +2537,13 @@
         <v>6.0</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D55" t="n">
         <v>0.4429164232988986</v>
       </c>
       <c r="E55" t="n">
-        <v>0.754598350805531</v>
+        <v>0.7792048187665809</v>
       </c>
       <c r="F55" t="n">
         <v>0.9994734399861103</v>
@@ -2519,10 +2552,10 @@
         <v>1.0</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56">
@@ -2533,13 +2566,13 @@
         <v>5.0</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D56" t="n">
         <v>0.4708404788582966</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7757484463347778</v>
+        <v>0.8010445913239553</v>
       </c>
       <c r="F56" t="n">
         <v>0.9555510570633419</v>
@@ -2548,10 +2581,10 @@
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I56" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
@@ -2562,13 +2595,13 @@
         <v>2.0</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D57" t="n">
         <v>0.47219470646464734</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7757484463347778</v>
+        <v>0.8010445913239553</v>
       </c>
       <c r="F57" t="n">
         <v>1.0</v>
@@ -2577,10 +2610,10 @@
         <v>1.0</v>
       </c>
       <c r="H57" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58">
@@ -2591,13 +2624,13 @@
         <v>5.0</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D58" t="n">
         <v>0.4842283272270198</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7815615106120319</v>
+        <v>0.80385586874668</v>
       </c>
       <c r="F58" t="n">
         <v>0.924662979958705</v>
@@ -2606,10 +2639,10 @@
         <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59">
@@ -2620,13 +2653,13 @@
         <v>10.0</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D59" t="n">
         <v>0.5126553462568688</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7968771938117565</v>
+        <v>0.80385586874668</v>
       </c>
       <c r="F59" t="n">
         <v>0.49221903197684236</v>
@@ -2635,10 +2668,10 @@
         <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I59" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60">
@@ -2649,25 +2682,25 @@
         <v>8.0</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D60" t="n">
         <v>0.5149296987967775</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7968771938117565</v>
+        <v>0.80385586874668</v>
       </c>
       <c r="F60" t="n">
         <v>0.19340437222303714</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8657148089983567</v>
+        <v>0.8615285671753472</v>
       </c>
       <c r="H60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
@@ -2675,28 +2708,28 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5246217248662544</v>
+        <v>0.5172235415962221</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7968771938117565</v>
+        <v>0.80385586874668</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7135166668217527</v>
+        <v>0.34325167285782077</v>
       </c>
       <c r="G61" t="n">
-        <v>1.0</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62">
@@ -2707,13 +2740,13 @@
         <v>2.0</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5408188080771783</v>
+        <v>0.5184153403546059</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7968771938117565</v>
+        <v>0.80385586874668</v>
       </c>
       <c r="F62" t="n">
         <v>1.0</v>
@@ -2722,10 +2755,10 @@
         <v>1.0</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I62" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63">
@@ -2736,25 +2769,25 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5438459810425258</v>
+        <v>0.5246217248662544</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7968771938117565</v>
+        <v>0.80385586874668</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0</v>
+        <v>0.7135166668217527</v>
       </c>
       <c r="G63" t="n">
         <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I63" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
@@ -2762,28 +2795,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5456876435884854</v>
+        <v>0.5408188080771783</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7968771938117565</v>
+        <v>0.810005095951658</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2076523845584178</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8793920576741734</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I64" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
@@ -2791,28 +2824,28 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5582056407621198</v>
+        <v>0.5456876435884854</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8024206085955472</v>
+        <v>0.810005095951658</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0</v>
+        <v>0.2076523845584178</v>
       </c>
       <c r="G65" t="n">
-        <v>1.0</v>
+        <v>0.8786124547861642</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66">
@@ -2820,28 +2853,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5682606585682786</v>
+        <v>0.5582056407621198</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8043073936658712</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F66" t="n">
-        <v>0.11924327080722333</v>
+        <v>1.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7005542159924371</v>
+        <v>1.0</v>
       </c>
       <c r="H66" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I66" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67">
@@ -2849,28 +2882,28 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5837560288439003</v>
+        <v>0.5682606585682786</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8085878084697724</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0</v>
+        <v>0.11924327080722333</v>
       </c>
       <c r="G67" t="n">
-        <v>1.0</v>
+        <v>0.6874023846534051</v>
       </c>
       <c r="H67" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68">
@@ -2878,16 +2911,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5922098247899528</v>
+        <v>0.5837560288439003</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8085878084697724</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F68" t="n">
         <v>1.0</v>
@@ -2896,10 +2929,10 @@
         <v>1.0</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69">
@@ -2907,28 +2940,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6057731640123953</v>
+        <v>0.5922098247899528</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8085878084697724</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6057731640123953</v>
+        <v>1.0</v>
       </c>
       <c r="G69" t="n">
         <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
@@ -2936,28 +2969,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>64.0</v>
+        <v>1.0</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6132342001527407</v>
+        <v>0.6057731640123953</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8085878084697724</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08658072095367676</v>
+        <v>0.6057731640123953</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5813276978318297</v>
+        <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="I70" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
@@ -2965,28 +2998,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>3.0</v>
+        <v>64.0</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D71" t="n">
-        <v>0.615229854270479</v>
+        <v>0.6132342001527407</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8085878084697724</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F71" t="n">
-        <v>0.587063032622803</v>
+        <v>0.08658072095367676</v>
       </c>
       <c r="G71" t="n">
-        <v>1.0</v>
+        <v>0.5656607102306882</v>
       </c>
       <c r="H71" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="I71" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72">
@@ -2994,28 +3027,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6256274008428693</v>
+        <v>0.615229854270479</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8106721250358306</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.587063032622803</v>
       </c>
       <c r="G72" t="n">
         <v>1.0</v>
       </c>
       <c r="H72" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73">
@@ -3023,16 +3056,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6378868766265249</v>
+        <v>0.6240629698802508</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8150776756894484</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F73" t="n">
         <v>1.0</v>
@@ -3041,10 +3074,10 @@
         <v>1.0</v>
       </c>
       <c r="H73" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I73" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74">
@@ -3052,28 +3085,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6712770994568591</v>
+        <v>0.6256274008428693</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8459930568497401</v>
+        <v>0.8141726449325012</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8632402345867614</v>
+        <v>1.0</v>
       </c>
       <c r="G74" t="n">
         <v>1.0</v>
       </c>
       <c r="H74" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I74" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75">
@@ -3081,28 +3114,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6842512990720034</v>
+        <v>0.6378868766265249</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8506908042516799</v>
+        <v>0.8189088281016198</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8064412851610674</v>
+        <v>1.0</v>
       </c>
       <c r="G75" t="n">
         <v>1.0</v>
       </c>
       <c r="H75" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I75" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76">
@@ -3110,28 +3143,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7102509946878405</v>
+        <v>0.6712770994568591</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8605315110328164</v>
+        <v>0.8502843259786882</v>
       </c>
       <c r="F76" t="n">
-        <v>0.015080386035318109</v>
+        <v>0.8632402345867614</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2835112574639805</v>
+        <v>1.0</v>
       </c>
       <c r="H76" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I76" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
@@ -3139,28 +3172,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7108738569401527</v>
+        <v>0.6842512990720034</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8605315110328164</v>
+        <v>0.8553141238400043</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5266853670796825</v>
+        <v>0.8064412851610674</v>
       </c>
       <c r="G77" t="n">
         <v>1.0</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I77" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78">
@@ -3168,28 +3201,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7208871782535416</v>
+        <v>0.7108738569401527</v>
       </c>
       <c r="E78" t="n">
-        <v>0.86131974544579</v>
+        <v>0.8668896447352716</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7208871782535416</v>
+        <v>0.5266853670796825</v>
       </c>
       <c r="G78" t="n">
         <v>1.0</v>
       </c>
       <c r="H78" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I78" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79">
@@ -3197,28 +3230,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7506212496079567</v>
+        <v>0.7204227992270762</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8853481405632311</v>
+        <v>0.8668896447352716</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9720163675471132</v>
+        <v>0.37981859326707246</v>
       </c>
       <c r="G79" t="n">
         <v>1.0</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I79" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80">
@@ -3226,28 +3259,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7695110250172432</v>
+        <v>0.7208871782535416</v>
       </c>
       <c r="E80" t="n">
-        <v>0.896139421539068</v>
+        <v>0.8668896447352716</v>
       </c>
       <c r="F80" t="n">
-        <v>1.0</v>
+        <v>0.7208871782535416</v>
       </c>
       <c r="G80" t="n">
         <v>1.0</v>
       </c>
       <c r="H80" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I80" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81">
@@ -3255,28 +3288,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7837688138674994</v>
+        <v>0.7506212496079567</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9013341359476242</v>
+        <v>0.8913627339094486</v>
       </c>
       <c r="F81" t="n">
-        <v>0.23662609681491248</v>
+        <v>0.9720163675471132</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8958866170492296</v>
+        <v>1.0</v>
       </c>
       <c r="H81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82">
@@ -3284,28 +3317,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8167247038842006</v>
+        <v>0.7626373857305294</v>
       </c>
       <c r="E82" t="n">
-        <v>0.910449338200101</v>
+        <v>0.8915066753248548</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7960863102000449</v>
+        <v>0.9773625371563883</v>
       </c>
       <c r="G82" t="n">
         <v>1.0</v>
       </c>
       <c r="H82" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83">
@@ -3313,28 +3346,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8201579611987124</v>
+        <v>0.7695110250172432</v>
       </c>
       <c r="E83" t="n">
-        <v>0.910449338200101</v>
+        <v>0.8915066753248548</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8201579611987124</v>
+        <v>1.0</v>
       </c>
       <c r="G83" t="n">
         <v>1.0</v>
       </c>
       <c r="H83" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I83" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84">
@@ -3342,28 +3375,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8261221642439615</v>
+        <v>0.7837688138674994</v>
       </c>
       <c r="E84" t="n">
-        <v>0.910449338200101</v>
+        <v>0.8970847869567764</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8689811795026038</v>
+        <v>0.23662609681491248</v>
       </c>
       <c r="G84" t="n">
-        <v>1.0</v>
+        <v>0.8980860113627711</v>
       </c>
       <c r="H84" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I84" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85">
@@ -3371,28 +3404,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8421317935175527</v>
+        <v>0.8201579611987124</v>
       </c>
       <c r="E85" t="n">
-        <v>0.910449338200101</v>
+        <v>0.9190112091138049</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0</v>
+        <v>0.8201579611987124</v>
       </c>
       <c r="G85" t="n">
         <v>1.0</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I85" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86">
@@ -3400,28 +3433,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8494181314799413</v>
+        <v>0.8261221642439615</v>
       </c>
       <c r="E86" t="n">
-        <v>0.910449338200101</v>
+        <v>0.9190112091138049</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9990759407415657</v>
+        <v>0.8689811795026038</v>
       </c>
       <c r="G86" t="n">
         <v>1.0</v>
       </c>
       <c r="H86" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I86" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87">
@@ -3429,28 +3462,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8557850900600665</v>
+        <v>0.8421317935175527</v>
       </c>
       <c r="E87" t="n">
-        <v>0.910449338200101</v>
+        <v>0.9190112091138049</v>
       </c>
       <c r="F87" t="n">
-        <v>0.29913558895512427</v>
+        <v>1.0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9831650800788052</v>
+        <v>1.0</v>
       </c>
       <c r="H87" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I87" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88">
@@ -3458,28 +3491,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8609683959066172</v>
+        <v>0.8494181314799413</v>
       </c>
       <c r="E88" t="n">
-        <v>0.910449338200101</v>
+        <v>0.9190112091138049</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9100767832401031</v>
+        <v>0.9990759407415657</v>
       </c>
       <c r="G88" t="n">
         <v>1.0</v>
       </c>
       <c r="H88" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I88" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89">
@@ -3487,28 +3520,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9673424066350838</v>
+        <v>0.8557850900600665</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9929132192462706</v>
+        <v>0.9190112091138049</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2151703970904892</v>
+        <v>0.29913558895512427</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8793920576741734</v>
+        <v>0.9870467964664476</v>
       </c>
       <c r="H89" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I89" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90">
@@ -3516,28 +3549,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9690345828641722</v>
+        <v>0.8609683959066172</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9929132192462706</v>
+        <v>0.9190112091138049</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9635205463288171</v>
+        <v>0.9100767832401031</v>
       </c>
       <c r="G90" t="n">
         <v>1.0</v>
       </c>
       <c r="H90" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I90" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91">
@@ -3545,28 +3578,28 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9868541711427709</v>
+        <v>0.8960378972904712</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9929132192462706</v>
+        <v>0.9458177804732752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6199543614582141</v>
+        <v>0.39024380183469354</v>
       </c>
       <c r="G91" t="n">
         <v>1.0</v>
       </c>
       <c r="H91" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I91" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92">
@@ -3574,28 +3607,28 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9876798301224019</v>
+        <v>0.9673424066350838</v>
       </c>
       <c r="E92" t="n">
         <v>0.9929132192462706</v>
       </c>
       <c r="F92" t="n">
-        <v>0.047327694973023283</v>
+        <v>0.2151703970904892</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5199533227173292</v>
+        <v>0.8786124547861642</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I92" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93">
@@ -3603,28 +3636,28 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9929132192462706</v>
+        <v>0.9690345828641722</v>
       </c>
       <c r="E93" t="n">
         <v>0.9929132192462706</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4275751113682281</v>
+        <v>0.9635205463288171</v>
       </c>
       <c r="G93" t="n">
         <v>1.0</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I93" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94">
@@ -3632,28 +3665,28 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" t="e">
-        <v>#N/A</v>
+        <v>107</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9868541711427709</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9929132192462706</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>0.6199543614582141</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95">
@@ -3661,28 +3694,144 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9876798301224019</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9929132192462706</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.047327694973023283</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.48333199678759536</v>
+      </c>
+      <c r="H95" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9929132192462706</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9929132192462706</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.4275751113682281</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>201</v>
+      </c>
+      <c r="I96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.0</v>
       </c>
-      <c r="C95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" t="e">
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E95" t="e">
+      <c r="E97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F97" t="n">
         <v>0.0</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G97" t="n">
         <v>0.0</v>
       </c>
-      <c r="H95" t="s">
-        <v>196</v>
-      </c>
-      <c r="I95" t="s">
-        <v>289</v>
+      <c r="H97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>203</v>
+      </c>
+      <c r="I98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
